--- a/CircuitoLimpioEncuestaahogares.xlsx
+++ b/CircuitoLimpioEncuestaahogares.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Circuito_Limpio\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE90181F-7A52-4EBE-B4DC-4DA55E9FAE56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja 1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Respuestas de formulario 1'!$A$1:$AQ$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Respuestas de formulario 1'!$A$1:$AQ$125</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -2163,10 +2157,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="0000000000"/>
+    <numFmt numFmtId="165" formatCode="0000000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -2259,8 +2253,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2475,29 +2469,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AQ1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E128" sqref="E128"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="25" width="18.88671875" customWidth="1"/>
-    <col min="26" max="26" width="196.77734375" customWidth="1"/>
-    <col min="27" max="43" width="18.88671875" customWidth="1"/>
+    <col min="1" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="25" width="18.85546875" customWidth="1"/>
+    <col min="26" max="26" width="196.7109375" customWidth="1"/>
+    <col min="27" max="43" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2628,7 +2622,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>45100.43951758102</v>
       </c>
@@ -2711,7 +2705,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>45100.439899930556</v>
       </c>
@@ -2806,7 +2800,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>45100.441741215276</v>
       </c>
@@ -2827,7 +2821,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>45100.442133865741</v>
       </c>
@@ -2934,7 +2928,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>45100.442795659721</v>
       </c>
@@ -3023,7 +3017,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>45100.444962731483</v>
       </c>
@@ -3109,7 +3103,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>45100.445801921298</v>
       </c>
@@ -3207,7 +3201,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>45100.445988784719</v>
       </c>
@@ -3305,7 +3299,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>45100.446377916669</v>
       </c>
@@ -3382,7 +3376,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>45100.447326759255</v>
       </c>
@@ -3457,7 +3451,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>45100.448211145835</v>
       </c>
@@ -3555,7 +3549,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>45100.450868912041</v>
       </c>
@@ -3662,7 +3656,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>45100.450951562496</v>
       </c>
@@ -3675,7 +3669,9 @@
       <c r="D14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="15"/>
+      <c r="E14" s="15">
+        <v>113033800</v>
+      </c>
       <c r="F14" s="1" t="s">
         <v>47</v>
       </c>
@@ -3767,7 +3763,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>45100.451728043983</v>
       </c>
@@ -3850,7 +3846,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>45100.453781215278</v>
       </c>
@@ -3939,7 +3935,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>45100.45409752315</v>
       </c>
@@ -4028,7 +4024,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>45100.456596203701</v>
       </c>
@@ -4141,7 +4137,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>45100.456614340277</v>
       </c>
@@ -4242,7 +4238,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>45100.456865115746</v>
       </c>
@@ -4331,7 +4327,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>45100.45729121528</v>
       </c>
@@ -4414,7 +4410,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>45100.458414687499</v>
       </c>
@@ -4515,7 +4511,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>45100.45894621528</v>
       </c>
@@ -4601,7 +4597,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>45100.460240162036</v>
       </c>
@@ -4702,7 +4698,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>45100.461327245372</v>
       </c>
@@ -4797,7 +4793,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>45100.461534699076</v>
       </c>
@@ -4898,7 +4894,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>45100.463862303237</v>
       </c>
@@ -4990,7 +4986,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>45100.464095567135</v>
       </c>
@@ -5079,7 +5075,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>45100.466233645835</v>
       </c>
@@ -5168,7 +5164,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="30" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>45100.468864097224</v>
       </c>
@@ -5254,7 +5250,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>45100.469292754628</v>
       </c>
@@ -5352,7 +5348,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>45100.471543171298</v>
       </c>
@@ -5462,7 +5458,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>45100.473737002314</v>
       </c>
@@ -5551,7 +5547,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>45100.473943553239</v>
       </c>
@@ -5643,7 +5639,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>45100.480633564817</v>
       </c>
@@ -5732,7 +5728,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>45100.480840092598</v>
       </c>
@@ -5827,7 +5823,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="37" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>45100.480940740745</v>
       </c>
@@ -5931,7 +5927,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="38" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>45100.485980127312</v>
       </c>
@@ -6035,7 +6031,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="39" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>45100.496250439814</v>
       </c>
@@ -6142,7 +6138,7 @@
       <c r="AP39" s="10"/>
       <c r="AQ39" s="10"/>
     </row>
-    <row r="40" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>45100.509423368057</v>
       </c>
@@ -6234,7 +6230,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>45100.517433356479</v>
       </c>
@@ -6245,7 +6241,7 @@
         <v>294</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>283</v>
+        <v>45</v>
       </c>
       <c r="E41" s="15">
         <v>113033064</v>
@@ -6314,7 +6310,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>45100.521185648147</v>
       </c>
@@ -6421,7 +6417,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="43" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>45100.531503981481</v>
       </c>
@@ -6510,7 +6506,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>45100.533918090281</v>
       </c>
@@ -6599,7 +6595,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="45" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>45100.533976574079</v>
       </c>
@@ -6703,7 +6699,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="46" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>45100.534377974538</v>
       </c>
@@ -6816,7 +6812,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="47" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>45100.538923842592</v>
       </c>
@@ -6893,7 +6889,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>45100.539111053236</v>
       </c>
@@ -6979,7 +6975,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="49" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>45100.542310787037</v>
       </c>
@@ -7086,7 +7082,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="50" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>45100.544360729167</v>
       </c>
@@ -7190,7 +7186,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>45101.452799305553</v>
       </c>
@@ -7288,7 +7284,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>45101.453384745371</v>
       </c>
@@ -7395,7 +7391,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="53" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>45101.459838472219</v>
       </c>
@@ -7490,7 +7486,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="54" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>45101.464601666667</v>
       </c>
@@ -7588,7 +7584,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="55" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>45101.465966990741</v>
       </c>
@@ -7668,7 +7664,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="56" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>45101.472152638889</v>
       </c>
@@ -7760,7 +7756,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="57" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>45101.472824699071</v>
       </c>
@@ -7843,7 +7839,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>45101.479246805553</v>
       </c>
@@ -7935,7 +7931,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>45101.486186238428</v>
       </c>
@@ -8021,7 +8017,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>45101.486588344909</v>
       </c>
@@ -8128,7 +8124,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="61" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>45101.496209004632</v>
       </c>
@@ -8211,7 +8207,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>45101.502509837963</v>
       </c>
@@ -8225,7 +8221,7 @@
         <v>283</v>
       </c>
       <c r="E62" s="15">
-        <v>13019008</v>
+        <v>113019008</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>363</v>
@@ -8306,7 +8302,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="63" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>45101.506243217591</v>
       </c>
@@ -8407,7 +8403,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="64" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>45101.507623090278</v>
       </c>
@@ -8514,7 +8510,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>45101.515123749996</v>
       </c>
@@ -8621,7 +8617,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="66" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>45101.519083090279</v>
       </c>
@@ -8704,7 +8700,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>45101.520444155089</v>
       </c>
@@ -8781,7 +8777,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>45101.525564502314</v>
       </c>
@@ -8864,7 +8860,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>45101.52660430556</v>
       </c>
@@ -8953,7 +8949,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="70" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>45101.526634398149</v>
       </c>
@@ -9048,7 +9044,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="71" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>45101.532224872688</v>
       </c>
@@ -9131,7 +9127,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>45101.53618166667</v>
       </c>
@@ -9214,7 +9210,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>45101.542128182875</v>
       </c>
@@ -9312,7 +9308,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="74" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>45101.5476762037</v>
       </c>
@@ -9392,7 +9388,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="75" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>45101.54791267361</v>
       </c>
@@ -9478,7 +9474,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="76" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>45101.550141250002</v>
       </c>
@@ -9579,7 +9575,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="77" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>45101.553195520828</v>
       </c>
@@ -9668,7 +9664,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="78" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>45101.556106504635</v>
       </c>
@@ -9763,7 +9759,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="79" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>45101.558401354167</v>
       </c>
@@ -9852,7 +9848,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>45105.513622881947</v>
       </c>
@@ -9953,7 +9949,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="81" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>45108.639247685183</v>
       </c>
@@ -10051,7 +10047,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="82" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>45105.563222002311</v>
       </c>
@@ -10140,7 +10136,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="83" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>45105.568807002317</v>
       </c>
@@ -10235,7 +10231,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>45107.436760567129</v>
       </c>
@@ -10327,7 +10323,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="85" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>45108.505918680559</v>
       </c>
@@ -10422,7 +10418,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>45108.50630228009</v>
       </c>
@@ -10514,7 +10510,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="87" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>45108.508676446756</v>
       </c>
@@ -10597,7 +10593,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="88" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>45108.509695011569</v>
       </c>
@@ -10677,7 +10673,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>45108.512853506945</v>
       </c>
@@ -10775,7 +10771,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="90" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>45108.513906990745</v>
       </c>
@@ -10786,7 +10782,7 @@
         <v>534</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>283</v>
+        <v>45</v>
       </c>
       <c r="E90" s="15">
         <v>113033804</v>
@@ -10864,7 +10860,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="91" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>45108.522037893519</v>
       </c>
@@ -10968,7 +10964,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="92" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>45108.52428380787</v>
       </c>
@@ -11066,7 +11062,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>45108.532241562498</v>
       </c>
@@ -11158,7 +11154,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="94" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>45108.538164699072</v>
       </c>
@@ -11265,7 +11261,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="95" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>45108.540106354165</v>
       </c>
@@ -11360,7 +11356,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="96" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>45108.609889513886</v>
       </c>
@@ -11461,7 +11457,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="97" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>45108.612085173612</v>
       </c>
@@ -11556,7 +11552,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="98" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>45108.612886469906</v>
       </c>
@@ -11642,7 +11638,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>45108.61404630787</v>
       </c>
@@ -11743,7 +11739,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="100" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>45108.617275046301</v>
       </c>
@@ -11847,7 +11843,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="101" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>45108.621754826388</v>
       </c>
@@ -11945,7 +11941,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="102" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>45108.623295763886</v>
       </c>
@@ -12040,7 +12036,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="103" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>45108.623664560189</v>
       </c>
@@ -12120,7 +12116,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>45108.624466041671</v>
       </c>
@@ -12215,7 +12211,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="105" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>45108.631320578701</v>
       </c>
@@ -12304,7 +12300,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="106" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>45108.637857106485</v>
       </c>
@@ -12393,7 +12389,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="107" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>45108.639620833332</v>
       </c>
@@ -12500,7 +12496,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="108" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>45108.639984791662</v>
       </c>
@@ -12583,7 +12579,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>45108.642837268519</v>
       </c>
@@ -12684,7 +12680,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="110" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>45108.644221192131</v>
       </c>
@@ -12782,7 +12778,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="111" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>45129.517616817131</v>
       </c>
@@ -12877,7 +12873,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="112" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>45129.525263321761</v>
       </c>
@@ -12960,7 +12956,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="113" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <v>45129.528922731479</v>
       </c>
@@ -13071,7 +13067,7 @@
       </c>
       <c r="AQ113" s="10"/>
     </row>
-    <row r="114" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>45129.531281157411</v>
       </c>
@@ -13154,7 +13150,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="115" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>45129.539363402779</v>
       </c>
@@ -13255,7 +13251,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="116" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
         <v>45129.545630324079</v>
       </c>
@@ -13370,7 +13366,7 @@
       </c>
       <c r="AQ116" s="10"/>
     </row>
-    <row r="117" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <v>45129.554040532406</v>
       </c>
@@ -13469,7 +13465,7 @@
       </c>
       <c r="AQ117" s="10"/>
     </row>
-    <row r="118" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>45129.557471365741</v>
       </c>
@@ -13567,7 +13563,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="119" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>45129.562427384255</v>
       </c>
@@ -13650,7 +13646,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="120" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>45129.564418391208</v>
       </c>
@@ -13754,7 +13750,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="121" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>45129.571304965277</v>
       </c>
@@ -13849,7 +13845,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="122" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>45129.582781504629</v>
       </c>
@@ -13929,7 +13925,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="123" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>45129.587174456014</v>
       </c>
@@ -14024,7 +14020,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="124" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>45129.594473425925</v>
       </c>
@@ -14110,7 +14106,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="125" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>45129.600020937505</v>
       </c>
@@ -14193,890 +14189,890 @@
         <v>698</v>
       </c>
     </row>
-    <row r="126" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:AQ1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AQ125"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -15084,9 +15080,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>62</v>
       </c>
@@ -15097,7 +15093,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>62</v>
       </c>
@@ -15108,7 +15104,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>62</v>
       </c>
@@ -15119,7 +15115,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>62</v>
       </c>
@@ -15130,7 +15126,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>62</v>
       </c>

--- a/CircuitoLimpioEncuestaahogares.xlsx
+++ b/CircuitoLimpioEncuestaahogares.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15210" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
@@ -1785,9 +1785,6 @@
     <t>Mariana - 094853940</t>
   </si>
   <si>
-    <t>0113001007-5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Joaquín y Macarena </t>
   </si>
   <si>
@@ -2152,6 +2149,9 @@
   </si>
   <si>
     <t>de 0 a 5</t>
+  </si>
+  <si>
+    <t>0113001006-5</t>
   </si>
 </sst>
 </file>
@@ -2470,14 +2470,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AQ1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2622,7 +2622,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>45100.43951758102</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>45100.439899930556</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>45100.441741215276</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>45100.442133865741</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>45100.442795659721</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>45100.444962731483</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>45100.445801921298</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>45100.445988784719</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>45100.446377916669</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>45100.447326759255</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>45100.448211145835</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>45100.450868912041</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>45100.450951562496</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>45100.451728043983</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>45100.453781215278</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>45100.45409752315</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>45100.456596203701</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>45100.456614340277</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>45100.456865115746</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>45100.45729121528</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>45100.458414687499</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>45100.45894621528</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>45100.460240162036</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>45100.461327245372</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>45100.461534699076</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>45100.463862303237</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>45100.464095567135</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>45100.466233645835</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="30" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>45100.468864097224</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>45100.469292754628</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>45100.471543171298</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>45100.473737002314</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>45100.473943553239</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>45100.480633564817</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>45100.480840092598</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="37" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>45100.480940740745</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="38" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>45100.485980127312</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="39" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>45100.496250439814</v>
       </c>
@@ -6138,7 +6138,7 @@
       <c r="AP39" s="10"/>
       <c r="AQ39" s="10"/>
     </row>
-    <row r="40" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>45100.509423368057</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>45100.517433356479</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>45100.521185648147</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="43" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>45100.531503981481</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>45100.533918090281</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="45" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>45100.533976574079</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="46" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>45100.534377974538</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="47" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>45100.538923842592</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>45100.539111053236</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="49" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>45100.542310787037</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="50" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>45100.544360729167</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>45101.452799305553</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>45101.453384745371</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="53" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>45101.459838472219</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="54" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>45101.464601666667</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="55" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>45101.465966990741</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="56" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>45101.472152638889</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="57" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>45101.472824699071</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>45101.479246805553</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>45101.486186238428</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>45101.486588344909</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="61" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>45101.496209004632</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>45101.502509837963</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="63" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>45101.506243217591</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="64" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>45101.507623090278</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>45101.515123749996</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="66" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>45101.519083090279</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>45101.520444155089</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>45101.525564502314</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>45101.52660430556</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="70" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>45101.526634398149</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="71" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>45101.532224872688</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>45101.53618166667</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>45101.542128182875</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="74" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>45101.5476762037</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="75" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>45101.54791267361</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="76" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>45101.550141250002</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="77" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>45101.553195520828</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="78" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>45101.556106504635</v>
       </c>
@@ -9759,7 +9759,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="79" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>45101.558401354167</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>45105.513622881947</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="81" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>45108.639247685183</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="82" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>45105.563222002311</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="83" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>45105.568807002317</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>45107.436760567129</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>45108.50630228009</v>
       </c>
@@ -10510,7 +10510,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="87" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>45108.508676446756</v>
       </c>
@@ -10593,7 +10593,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="88" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>45108.509695011569</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>45108.512853506945</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="90" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>45108.513906990745</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="91" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>45108.522037893519</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="94" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>45108.538164699072</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="95" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>45108.540106354165</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="97" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>45108.612085173612</v>
       </c>
@@ -11552,7 +11552,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="98" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>45108.612886469906</v>
       </c>
@@ -11638,7 +11638,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>45108.61404630787</v>
       </c>
@@ -11744,16 +11744,16 @@
         <v>45108.617275046301</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>581</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>283</v>
       </c>
       <c r="E100" s="15">
-        <v>113001007</v>
+        <v>113001006</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>363</v>
@@ -11795,16 +11795,16 @@
         <v>59</v>
       </c>
       <c r="AA100" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="AB100" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="AB100" s="1" t="s">
-        <v>583</v>
       </c>
       <c r="AC100" s="1" t="s">
         <v>84</v>
       </c>
       <c r="AD100" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AE100" s="1" t="s">
         <v>88</v>
@@ -11813,10 +11813,10 @@
         <v>568</v>
       </c>
       <c r="AG100" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="AH100" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="AH100" s="1" t="s">
-        <v>586</v>
       </c>
       <c r="AJ100" s="1" t="s">
         <v>58</v>
@@ -11837,21 +11837,21 @@
         <v>73</v>
       </c>
       <c r="AP100" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="AQ100" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="AQ100" s="1" t="s">
-        <v>588</v>
-      </c>
     </row>
-    <row r="101" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>45108.621754826388</v>
       </c>
       <c r="B101" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>590</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>283</v>
@@ -11869,10 +11869,10 @@
         <v>166</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>167</v>
@@ -11905,10 +11905,10 @@
         <v>52</v>
       </c>
       <c r="Z101" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="AA101" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="AA101" s="1" t="s">
-        <v>593</v>
       </c>
       <c r="AB101" s="1" t="s">
         <v>71</v>
@@ -11938,15 +11938,15 @@
         <v>73</v>
       </c>
       <c r="AP101" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
-    <row r="102" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>45108.623295763886</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>63</v>
@@ -11970,7 +11970,7 @@
         <v>98</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="T102" s="1" t="s">
         <v>83</v>
@@ -11994,7 +11994,7 @@
         <v>265</v>
       </c>
       <c r="AB102" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AC102" s="1" t="s">
         <v>84</v>
@@ -12009,7 +12009,7 @@
         <v>83</v>
       </c>
       <c r="AG102" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AH102" s="1" t="s">
         <v>58</v>
@@ -12033,7 +12033,7 @@
         <v>73</v>
       </c>
       <c r="AP102" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="103" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12041,7 +12041,7 @@
         <v>45108.623664560189</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>511</v>
@@ -12086,7 +12086,7 @@
         <v>59</v>
       </c>
       <c r="AA103" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AB103" s="1" t="s">
         <v>71</v>
@@ -12116,12 +12116,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>45108.624466041671</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>530</v>
@@ -12166,7 +12166,7 @@
         <v>59</v>
       </c>
       <c r="AA104" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AB104" s="1" t="s">
         <v>71</v>
@@ -12175,16 +12175,16 @@
         <v>51</v>
       </c>
       <c r="AD104" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AE104" s="1" t="s">
         <v>171</v>
       </c>
       <c r="AF104" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="AG104" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="AG104" s="1" t="s">
-        <v>606</v>
       </c>
       <c r="AH104" s="1" t="s">
         <v>140</v>
@@ -12208,15 +12208,15 @@
         <v>73</v>
       </c>
       <c r="AP104" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
-    <row r="105" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>45108.631320578701</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>572</v>
@@ -12264,7 +12264,7 @@
         <v>51</v>
       </c>
       <c r="AD105" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AE105" s="1" t="s">
         <v>171</v>
@@ -12273,7 +12273,7 @@
         <v>69</v>
       </c>
       <c r="AG105" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AH105" s="1" t="s">
         <v>58</v>
@@ -12297,15 +12297,15 @@
         <v>73</v>
       </c>
       <c r="AP105" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
-    <row r="106" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>45108.637857106485</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>530</v>
@@ -12356,7 +12356,7 @@
         <v>59</v>
       </c>
       <c r="AA106" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AB106" s="1" t="s">
         <v>71</v>
@@ -12386,18 +12386,18 @@
         <v>73</v>
       </c>
       <c r="AP106" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="107" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>45108.639620833332</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>283</v>
@@ -12448,10 +12448,10 @@
         <v>52</v>
       </c>
       <c r="Z107" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="AA107" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="AA107" s="1" t="s">
-        <v>617</v>
       </c>
       <c r="AB107" s="1" t="s">
         <v>71</v>
@@ -12460,7 +12460,7 @@
         <v>51</v>
       </c>
       <c r="AD107" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AE107" s="1" t="s">
         <v>171</v>
@@ -12469,7 +12469,7 @@
         <v>69</v>
       </c>
       <c r="AG107" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AH107" s="1" t="s">
         <v>58</v>
@@ -12493,7 +12493,7 @@
         <v>73</v>
       </c>
       <c r="AP107" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="108" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12501,7 +12501,7 @@
         <v>45108.639984791662</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>544</v>
@@ -12546,10 +12546,10 @@
         <v>52</v>
       </c>
       <c r="Z108" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="AA108" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="AA108" s="1" t="s">
-        <v>623</v>
       </c>
       <c r="AB108" s="1" t="s">
         <v>71</v>
@@ -12579,15 +12579,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>45108.642837268519</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>625</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>283</v>
@@ -12635,7 +12635,7 @@
         <v>59</v>
       </c>
       <c r="AA109" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AB109" s="1" t="s">
         <v>71</v>
@@ -12644,19 +12644,19 @@
         <v>51</v>
       </c>
       <c r="AD109" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AE109" s="1" t="s">
         <v>88</v>
       </c>
       <c r="AF109" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="AG109" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="AH109" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="AG109" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="AH109" s="1" t="s">
-        <v>629</v>
       </c>
       <c r="AJ109" s="1" t="s">
         <v>59</v>
@@ -12677,15 +12677,15 @@
         <v>73</v>
       </c>
       <c r="AP109" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
-    <row r="110" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>45108.644221192131</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>63</v>
@@ -12733,7 +12733,7 @@
         <v>85</v>
       </c>
       <c r="AA110" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AB110" s="1" t="s">
         <v>71</v>
@@ -12742,19 +12742,19 @@
         <v>84</v>
       </c>
       <c r="AD110" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AE110" s="1" t="s">
         <v>139</v>
       </c>
       <c r="AF110" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="AG110" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="AG110" s="1" t="s">
+      <c r="AH110" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="AH110" s="1" t="s">
-        <v>636</v>
       </c>
       <c r="AJ110" s="1" t="s">
         <v>58</v>
@@ -12775,10 +12775,10 @@
         <v>73</v>
       </c>
       <c r="AP110" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
-    <row r="111" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>45129.517616817131</v>
       </c>
@@ -12831,7 +12831,7 @@
         <v>59</v>
       </c>
       <c r="AA111" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AB111" s="1" t="s">
         <v>71</v>
@@ -12843,13 +12843,13 @@
         <v>88</v>
       </c>
       <c r="AF111" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AG111" s="1" t="s">
         <v>399</v>
       </c>
       <c r="AH111" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AJ111" s="1" t="s">
         <v>58</v>
@@ -12870,15 +12870,15 @@
         <v>73</v>
       </c>
       <c r="AP111" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
-    <row r="112" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>45129.525263321761</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>516</v>
@@ -12920,10 +12920,10 @@
         <v>52</v>
       </c>
       <c r="Z112" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AA112" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="AA112" s="1" t="s">
-        <v>644</v>
       </c>
       <c r="AB112" s="1" t="s">
         <v>71</v>
@@ -12953,10 +12953,10 @@
         <v>73</v>
       </c>
       <c r="AP112" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
-    <row r="113" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <v>45129.528922731479</v>
       </c>
@@ -13017,10 +13017,10 @@
         <v>52</v>
       </c>
       <c r="Z113" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="AA113" s="9" t="s">
         <v>646</v>
-      </c>
-      <c r="AA113" s="9" t="s">
-        <v>647</v>
       </c>
       <c r="AB113" s="9" t="s">
         <v>71</v>
@@ -13035,13 +13035,13 @@
         <v>88</v>
       </c>
       <c r="AF113" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="AG113" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="AG113" s="9" t="s">
+      <c r="AH113" s="9" t="s">
         <v>649</v>
-      </c>
-      <c r="AH113" s="9" t="s">
-        <v>650</v>
       </c>
       <c r="AI113" s="10"/>
       <c r="AJ113" s="9" t="s">
@@ -13063,16 +13063,16 @@
         <v>73</v>
       </c>
       <c r="AP113" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AQ113" s="10"/>
     </row>
-    <row r="114" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>45129.531281157411</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>516</v>
@@ -13147,15 +13147,15 @@
         <v>58</v>
       </c>
       <c r="AQ114" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
-    <row r="115" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>45129.539363402779</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>516</v>
@@ -13203,10 +13203,10 @@
         <v>52</v>
       </c>
       <c r="Z115" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="AA115" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="AA115" s="1" t="s">
-        <v>654</v>
       </c>
       <c r="AB115" s="1" t="s">
         <v>71</v>
@@ -13215,7 +13215,7 @@
         <v>84</v>
       </c>
       <c r="AD115" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AE115" s="1" t="s">
         <v>88</v>
@@ -13227,7 +13227,7 @@
         <v>121</v>
       </c>
       <c r="AH115" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AJ115" s="1" t="s">
         <v>58</v>
@@ -13248,15 +13248,15 @@
         <v>73</v>
       </c>
       <c r="AP115" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
-    <row r="116" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
         <v>45129.545630324079</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C116" s="9" t="s">
         <v>247</v>
@@ -13301,7 +13301,7 @@
         <v>50</v>
       </c>
       <c r="U116" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="V116" s="9" t="s">
         <v>51</v>
@@ -13316,10 +13316,10 @@
         <v>52</v>
       </c>
       <c r="Z116" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="AA116" s="9" t="s">
         <v>660</v>
-      </c>
-      <c r="AA116" s="9" t="s">
-        <v>661</v>
       </c>
       <c r="AB116" s="9" t="s">
         <v>71</v>
@@ -13328,7 +13328,7 @@
         <v>84</v>
       </c>
       <c r="AD116" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AE116" s="9" t="s">
         <v>88</v>
@@ -13337,10 +13337,10 @@
         <v>568</v>
       </c>
       <c r="AG116" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="AH116" s="9" t="s">
         <v>663</v>
-      </c>
-      <c r="AH116" s="9" t="s">
-        <v>664</v>
       </c>
       <c r="AI116" s="10"/>
       <c r="AJ116" s="9" t="s">
@@ -13362,16 +13362,16 @@
         <v>73</v>
       </c>
       <c r="AP116" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AQ116" s="10"/>
     </row>
-    <row r="117" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <v>45129.554040532406</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C117" s="9" t="s">
         <v>247</v>
@@ -13410,7 +13410,7 @@
         <v>69</v>
       </c>
       <c r="U117" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="V117" s="9" t="s">
         <v>51</v>
@@ -13426,7 +13426,7 @@
       </c>
       <c r="Z117" s="10"/>
       <c r="AA117" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AB117" s="9" t="s">
         <v>71</v>
@@ -13461,11 +13461,11 @@
         <v>73</v>
       </c>
       <c r="AP117" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AQ117" s="10"/>
     </row>
-    <row r="118" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>45129.557471365741</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>308</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>283</v>
@@ -13512,10 +13512,10 @@
         <v>52</v>
       </c>
       <c r="Z118" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="AA118" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="AA118" s="1" t="s">
-        <v>671</v>
       </c>
       <c r="AB118" s="1" t="s">
         <v>71</v>
@@ -13533,10 +13533,10 @@
         <v>83</v>
       </c>
       <c r="AG118" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="AH118" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="AH118" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="AJ118" s="1" t="s">
         <v>59</v>
@@ -13557,13 +13557,13 @@
         <v>73</v>
       </c>
       <c r="AP118" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="AQ118" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="AQ118" s="1" t="s">
-        <v>675</v>
-      </c>
     </row>
-    <row r="119" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>45129.562427384255</v>
       </c>
@@ -13613,7 +13613,7 @@
         <v>59</v>
       </c>
       <c r="AA119" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AB119" s="1" t="s">
         <v>71</v>
@@ -13643,15 +13643,15 @@
         <v>73</v>
       </c>
       <c r="AP119" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
-    <row r="120" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>45129.564418391208</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>247</v>
@@ -13714,7 +13714,7 @@
         <v>52</v>
       </c>
       <c r="Z120" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA120" s="1" t="s">
         <v>265</v>
@@ -13726,7 +13726,7 @@
         <v>56</v>
       </c>
       <c r="AI120" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AJ120" s="1" t="s">
         <v>58</v>
@@ -13747,10 +13747,10 @@
         <v>73</v>
       </c>
       <c r="AP120" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
-    <row r="121" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>45129.571304965277</v>
       </c>
@@ -13758,7 +13758,7 @@
         <v>308</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>283</v>
@@ -13782,7 +13782,7 @@
         <v>83</v>
       </c>
       <c r="U121" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="V121" s="1" t="s">
         <v>51</v>
@@ -13797,10 +13797,10 @@
         <v>52</v>
       </c>
       <c r="Z121" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="AA121" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="AA121" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="AB121" s="1" t="s">
         <v>71</v>
@@ -13809,7 +13809,7 @@
         <v>51</v>
       </c>
       <c r="AD121" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AE121" s="1" t="s">
         <v>171</v>
@@ -13818,10 +13818,10 @@
         <v>69</v>
       </c>
       <c r="AG121" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="AH121" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="AH121" s="1" t="s">
-        <v>687</v>
       </c>
       <c r="AJ121" s="1" t="s">
         <v>58</v>
@@ -13842,10 +13842,10 @@
         <v>73</v>
       </c>
       <c r="AP121" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
-    <row r="122" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>45129.582781504629</v>
       </c>
@@ -13853,7 +13853,7 @@
         <v>326</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>283</v>
@@ -13922,10 +13922,10 @@
         <v>73</v>
       </c>
       <c r="AP122" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
-    <row r="123" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>45129.587174456014</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>85</v>
       </c>
       <c r="AA123" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AB123" s="1" t="s">
         <v>71</v>
@@ -13984,16 +13984,16 @@
         <v>51</v>
       </c>
       <c r="AD123" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AE123" s="1" t="s">
         <v>88</v>
       </c>
       <c r="AF123" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="AG123" s="1" t="s">
         <v>693</v>
-      </c>
-      <c r="AG123" s="1" t="s">
-        <v>694</v>
       </c>
       <c r="AH123" s="1" t="s">
         <v>58</v>
@@ -14017,10 +14017,10 @@
         <v>73</v>
       </c>
       <c r="AP123" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
-    <row r="124" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>45129.594473425925</v>
       </c>
@@ -14082,10 +14082,10 @@
         <v>69</v>
       </c>
       <c r="AG124" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="AH124" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="AH124" s="1" t="s">
-        <v>697</v>
       </c>
       <c r="AJ124" s="1" t="s">
         <v>58</v>
@@ -14106,7 +14106,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="125" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>45129.600020937505</v>
       </c>
@@ -14186,7 +14186,7 @@
         <v>73</v>
       </c>
       <c r="AP125" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="126" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15065,7 +15065,14 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:AQ125"/>
+  <autoFilter ref="A1:AQ125">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Joaquín Macarena"/>
+        <filter val="Joaquín y Macarena"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -15078,9 +15085,15 @@
   </sheetPr>
   <dimension ref="A2:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -15090,7 +15103,7 @@
         <v>166</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15098,10 +15111,10 @@
         <v>62</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15109,10 +15122,10 @@
         <v>62</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>700</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15123,7 +15136,7 @@
         <v>166</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15131,10 +15144,10 @@
         <v>62</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>

--- a/CircuitoLimpioEncuestaahogares.xlsx
+++ b/CircuitoLimpioEncuestaahogares.xlsx
@@ -2470,14 +2470,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AQ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H96" sqref="H96"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AO26" sqref="AO26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2622,7 +2622,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>45100.43951758102</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>45100.439899930556</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>45100.441741215276</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>45100.442133865741</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>45100.442795659721</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>45100.444962731483</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>45100.445801921298</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>45100.445988784719</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>45100.446377916669</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>45100.447326759255</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>45100.448211145835</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>45100.450868912041</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>45100.450951562496</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>45100.451728043983</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>45100.453781215278</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>45100.45409752315</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>45100.456596203701</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>45100.456614340277</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>45100.456865115746</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>45100.45729121528</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>45100.458414687499</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>45100.45894621528</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>45100.460240162036</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>45100.461327245372</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>45100.461534699076</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>45100.463862303237</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>45100.464095567135</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>45100.466233645835</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="30" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>45100.468864097224</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>45100.469292754628</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>45100.471543171298</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>45100.473737002314</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>45100.473943553239</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>45100.480633564817</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>45100.480840092598</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="37" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>45100.480940740745</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="38" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>45100.485980127312</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="39" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>45100.496250439814</v>
       </c>
@@ -6138,7 +6138,7 @@
       <c r="AP39" s="10"/>
       <c r="AQ39" s="10"/>
     </row>
-    <row r="40" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>45100.509423368057</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>45100.517433356479</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>45100.521185648147</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="43" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>45100.531503981481</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>45100.533918090281</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="45" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>45100.533976574079</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="46" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>45100.534377974538</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="47" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>45100.538923842592</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>45100.539111053236</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="49" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>45100.542310787037</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="50" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>45100.544360729167</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>45101.452799305553</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>45101.453384745371</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="53" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>45101.459838472219</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="54" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>45101.464601666667</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="55" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>45101.465966990741</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="56" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>45101.472152638889</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="57" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>45101.472824699071</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>45101.479246805553</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>45101.486186238428</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>45101.486588344909</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="61" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>45101.496209004632</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>45101.502509837963</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="63" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>45101.506243217591</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="64" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>45101.507623090278</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>45101.515123749996</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="66" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>45101.519083090279</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>45101.520444155089</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>45101.525564502314</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>45101.52660430556</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="70" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>45101.526634398149</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="71" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>45101.532224872688</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>45101.53618166667</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>45101.542128182875</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="74" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>45101.5476762037</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="75" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>45101.54791267361</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="76" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>45101.550141250002</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="77" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>45101.553195520828</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="78" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>45101.556106504635</v>
       </c>
@@ -9759,7 +9759,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="79" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>45101.558401354167</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>45105.513622881947</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="81" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>45108.639247685183</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="82" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>45105.563222002311</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="83" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>45105.568807002317</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>45107.436760567129</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>45108.50630228009</v>
       </c>
@@ -10510,7 +10510,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="87" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>45108.508676446756</v>
       </c>
@@ -10593,7 +10593,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="88" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>45108.509695011569</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>45108.512853506945</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="90" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>45108.513906990745</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="91" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>45108.522037893519</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="94" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>45108.538164699072</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="95" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>45108.540106354165</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="97" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>45108.612085173612</v>
       </c>
@@ -11552,7 +11552,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="98" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>45108.612886469906</v>
       </c>
@@ -11638,7 +11638,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>45108.61404630787</v>
       </c>
@@ -11843,7 +11843,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="101" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>45108.621754826388</v>
       </c>
@@ -11941,7 +11941,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="102" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>45108.623295763886</v>
       </c>
@@ -12116,7 +12116,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>45108.624466041671</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="105" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>45108.631320578701</v>
       </c>
@@ -12300,7 +12300,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="106" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>45108.637857106485</v>
       </c>
@@ -12389,7 +12389,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="107" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>45108.639620833332</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>45108.642837268519</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="110" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>45108.644221192131</v>
       </c>
@@ -12778,7 +12778,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="111" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>45129.517616817131</v>
       </c>
@@ -12873,7 +12873,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="112" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>45129.525263321761</v>
       </c>
@@ -12956,7 +12956,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="113" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <v>45129.528922731479</v>
       </c>
@@ -13067,7 +13067,7 @@
       </c>
       <c r="AQ113" s="10"/>
     </row>
-    <row r="114" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>45129.531281157411</v>
       </c>
@@ -13150,7 +13150,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="115" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>45129.539363402779</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="116" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
         <v>45129.545630324079</v>
       </c>
@@ -13366,7 +13366,7 @@
       </c>
       <c r="AQ116" s="10"/>
     </row>
-    <row r="117" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <v>45129.554040532406</v>
       </c>
@@ -13465,7 +13465,7 @@
       </c>
       <c r="AQ117" s="10"/>
     </row>
-    <row r="118" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>45129.557471365741</v>
       </c>
@@ -13563,7 +13563,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="119" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>45129.562427384255</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="120" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>45129.564418391208</v>
       </c>
@@ -13750,7 +13750,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="121" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>45129.571304965277</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="122" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>45129.582781504629</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="123" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>45129.587174456014</v>
       </c>
@@ -14020,7 +14020,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="124" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>45129.594473425925</v>
       </c>
@@ -14106,7 +14106,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="125" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>45129.600020937505</v>
       </c>
@@ -15065,14 +15065,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:AQ125">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Joaquín Macarena"/>
-        <filter val="Joaquín y Macarena"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AQ125"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/CircuitoLimpioEncuestaahogares.xlsx
+++ b/CircuitoLimpioEncuestaahogares.xlsx
@@ -2475,9 +2475,9 @@
   </sheetPr>
   <dimension ref="A1:AQ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO26" sqref="AO26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10061,7 +10061,7 @@
         <v>45</v>
       </c>
       <c r="E82" s="15">
-        <v>11303306</v>
+        <v>113033063</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>47</v>
